--- a/06_8-9_ae.xlsx
+++ b/06_8-9_ae.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliogu/Documentos/git/ae-fixture/data/entrada/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliogu/eclipse-workspace/fuh-scheduling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EFEA61-E5A9-5E46-B2DF-D0816B97BF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640E0B35-2A32-9240-9534-CA620537EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="64">
   <si>
     <t>instituto 1</t>
   </si>
@@ -213,6 +213,12 @@
   </si>
   <si>
     <t>cancha1</t>
+  </si>
+  <si>
+    <t>bloque 4</t>
+  </si>
+  <si>
+    <t>U21 M</t>
   </si>
 </sst>
 </file>
@@ -570,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -665,10 +671,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -678,78 +684,78 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -847,13 +853,13 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -938,13 +944,13 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -990,26 +996,26 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1029,36 +1035,36 @@
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>11</v>
+      <c r="A36" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
@@ -1067,24 +1073,24 @@
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>50</v>
+      <c r="A38" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
@@ -1094,26 +1100,26 @@
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2102,9 +2108,14 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
@@ -2237,13 +2248,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>45</v>
       </c>
@@ -2253,7 +2269,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
@@ -2266,14 +2282,10 @@
       <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="5" t="s">
         <v>47</v>
       </c>
@@ -2289,9 +2301,14 @@
       <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="5" t="s">
         <v>48</v>
       </c>
@@ -2308,6 +2325,17 @@
         <v>16</v>
       </c>
       <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2485,11 +2513,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
@@ -2510,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="C2" s="12">
         <v>0.91666666666666663</v>
@@ -2519,7 +2552,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B3" s="12">
         <v>0.375</v>
@@ -2531,107 +2564,71 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="12">
-        <v>0.625</v>
+        <v>0.375</v>
       </c>
       <c r="C4" s="12">
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="12">
-        <v>0.375</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C5" s="12">
-        <v>0.91666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D5" s="11"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" s="12">
-        <v>0.58333333333333337</v>
+        <v>0.375</v>
       </c>
       <c r="C6" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B7" s="12">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="C7" s="12">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D7" s="11"/>
+        <v>0.625</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B8" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="C8" s="12">
-        <v>0.83333333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="C9" s="12">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="12">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="C10" s="12">
-        <v>0.625</v>
-      </c>
-      <c r="D10" s="11">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="12">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C11" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
